--- a/stringstudy/src/main/resources/com/resources/files/HashmapTrail.xlsx
+++ b/stringstudy/src/main/resources/com/resources/files/HashmapTrail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2850" windowWidth="17100" windowHeight="6585"/>
+    <workbookView xWindow="0" yWindow="2850" windowWidth="15945" windowHeight="6105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -33,13 +33,19 @@
     <t>amit</t>
   </si>
   <si>
-    <t>wer1</t>
-  </si>
-  <si>
     <t>wer2</t>
   </si>
   <si>
     <t>wer3</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>#s</t>
+  </si>
+  <si>
+    <t>21/12/2018</t>
   </si>
 </sst>
 </file>
@@ -75,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,48 +378,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
